--- a/docs/Design-Fase1.xlsx
+++ b/docs/Design-Fase1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xfiles\code\python\Insper-PyGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xfiles\code\python\Insper-PyGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Avatar</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Chão</t>
   </si>
   <si>
-    <t>Dimensão da Fase 2400 x 600</t>
-  </si>
-  <si>
     <t>Inimigo</t>
   </si>
   <si>
     <t>Design da Fase: Jogo 2D plataforma</t>
   </si>
   <si>
-    <t>Dimensão da Janela 800 x 600 (14x10) - Viewport</t>
-  </si>
-  <si>
     <t>Insper - Engenharia - Design de Software - Python - Pygame</t>
   </si>
   <si>
@@ -90,6 +84,21 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Sprite Size</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>Dimensão da Janela 980 x 700 (14x10) - Viewport</t>
+  </si>
+  <si>
+    <t>Dimensão da Fase 2940 x 700</t>
+  </si>
+  <si>
+    <t>Ponte</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -276,6 +291,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,213 +573,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AX25"/>
+  <dimension ref="B1:AX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4" style="1"/>
+    <col min="1" max="20" width="4" style="1"/>
+    <col min="21" max="21" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="4" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="19">
+      <c r="G7" s="19">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>7</v>
+      </c>
+      <c r="J7" s="19">
+        <v>8</v>
+      </c>
+      <c r="K7" s="19">
+        <v>9</v>
+      </c>
+      <c r="L7" s="19">
+        <v>10</v>
+      </c>
+      <c r="M7" s="19">
+        <v>11</v>
+      </c>
+      <c r="N7" s="19">
+        <v>12</v>
+      </c>
+      <c r="O7" s="19">
+        <v>13</v>
+      </c>
+      <c r="P7" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="R7" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="S7" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="19">
+      <c r="T7" s="20">
         <v>4</v>
       </c>
-      <c r="G6" s="19">
+      <c r="U7" s="20">
         <v>5</v>
       </c>
-      <c r="H6" s="19">
+      <c r="V7" s="20">
         <v>6</v>
       </c>
-      <c r="I6" s="19">
+      <c r="W7" s="20">
         <v>7</v>
       </c>
-      <c r="J6" s="19">
+      <c r="X7" s="20">
         <v>8</v>
       </c>
-      <c r="K6" s="19">
+      <c r="Y7" s="20">
         <v>9</v>
       </c>
-      <c r="L6" s="19">
+      <c r="Z7" s="20">
         <v>10</v>
       </c>
-      <c r="M6" s="19">
+      <c r="AA7" s="20">
         <v>11</v>
       </c>
-      <c r="N6" s="19">
+      <c r="AB7" s="20">
         <v>12</v>
       </c>
-      <c r="O6" s="19">
+      <c r="AC7" s="20">
         <v>13</v>
       </c>
-      <c r="P6" s="19">
+      <c r="AD7" s="20">
         <v>14</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="AE7" s="19">
         <v>1</v>
       </c>
-      <c r="R6" s="20">
+      <c r="AF7" s="19">
         <v>2</v>
       </c>
-      <c r="S6" s="20">
+      <c r="AG7" s="19">
         <v>3</v>
       </c>
-      <c r="T6" s="20">
+      <c r="AH7" s="19">
         <v>4</v>
       </c>
-      <c r="U6" s="20">
+      <c r="AI7" s="19">
         <v>5</v>
       </c>
-      <c r="V6" s="20">
+      <c r="AJ7" s="19">
         <v>6</v>
       </c>
-      <c r="W6" s="20">
+      <c r="AK7" s="19">
         <v>7</v>
       </c>
-      <c r="X6" s="20">
+      <c r="AL7" s="19">
         <v>8</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="AM7" s="19">
         <v>9</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="AN7" s="19">
         <v>10</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AO7" s="19">
         <v>11</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AP7" s="19">
         <v>12</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AQ7" s="19">
         <v>13</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AR7" s="19">
         <v>14</v>
       </c>
-      <c r="AE6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>4</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="19">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="19">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="19">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="19">
-        <v>11</v>
-      </c>
-      <c r="AP6" s="19">
-        <v>12</v>
-      </c>
-      <c r="AQ6" s="19">
-        <v>13</v>
-      </c>
-      <c r="AR6" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -809,7 +792,7 @@
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -838,12 +821,13 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="12"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="16"/>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
@@ -855,7 +839,7 @@
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -867,10 +851,10 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -884,14 +868,13 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
+      <c r="AD10" s="12"/>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
@@ -902,7 +885,7 @@
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -912,12 +895,12 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -931,14 +914,14 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
@@ -949,19 +932,19 @@
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -987,24 +970,24 @@
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="24"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1012,7 +995,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -1034,19 +1017,19 @@
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="24"/>
       <c r="AR13" s="10"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1061,11 +1044,11 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="23"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="16"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -1082,62 +1065,62 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
       <c r="AM14" s="10"/>
-      <c r="AN14" s="16"/>
+      <c r="AN14" s="10"/>
       <c r="AO14" s="10"/>
       <c r="AP14" s="10"/>
-      <c r="AQ14" s="26"/>
+      <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="10"/>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1163,16 +1146,16 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
@@ -1182,102 +1165,155 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-    </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="E18" s="1" t="s">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+    </row>
+    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+    </row>
+    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
+    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
       <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C21" s="8"/>
-      <c r="E21" s="1" t="s">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C22" s="8"/>
+      <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
-      <c r="E22" s="1" t="s">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
+    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C26" s="22"/>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Design-Fase1.xlsx
+++ b/docs/Design-Fase1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Avatar</t>
   </si>
@@ -99,13 +99,19 @@
   </si>
   <si>
     <t>Ponte</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +143,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,6 +242,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -257,42 +282,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,275 +604,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AX27"/>
+  <dimension ref="B1:AY29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="4" style="1"/>
-    <col min="21" max="21" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="4" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="7.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="19">
+    <row r="7" spans="2:45" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>70</v>
+      </c>
+      <c r="F7" s="18">
+        <f>E7+70</f>
+        <v>140</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" ref="G7:AT7" si="0">F7+70</f>
+        <v>210</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="V7" s="18">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="W7" s="18">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="X7" s="18">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="Y7" s="18">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="Z7" s="18">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="AA7" s="18">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="AB7" s="18">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="AC7" s="18">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="AD7" s="18">
+        <f t="shared" si="0"/>
+        <v>1820</v>
+      </c>
+      <c r="AE7" s="18">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="AF7" s="18">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="AG7" s="18">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AH7" s="18">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="AI7" s="18">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+      <c r="AJ7" s="18">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="AK7" s="18">
+        <f t="shared" si="0"/>
+        <v>2310</v>
+      </c>
+      <c r="AL7" s="18">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="AM7" s="18">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="AN7" s="18">
+        <f t="shared" si="0"/>
+        <v>2520</v>
+      </c>
+      <c r="AO7" s="18">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+      <c r="AP7" s="18">
+        <f t="shared" si="0"/>
+        <v>2660</v>
+      </c>
+      <c r="AQ7" s="18">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="AR7" s="18">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="AS7" s="18">
+        <f t="shared" si="0"/>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="E8" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="F8" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="G8" s="18">
         <v>4</v>
       </c>
-      <c r="G7" s="19">
+      <c r="H8" s="18">
         <v>5</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I8" s="18">
         <v>6</v>
       </c>
-      <c r="I7" s="19">
+      <c r="J8" s="18">
         <v>7</v>
       </c>
-      <c r="J7" s="19">
+      <c r="K8" s="18">
         <v>8</v>
       </c>
-      <c r="K7" s="19">
+      <c r="L8" s="18">
         <v>9</v>
       </c>
-      <c r="L7" s="19">
+      <c r="M8" s="18">
         <v>10</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N8" s="18">
         <v>11</v>
       </c>
-      <c r="N7" s="19">
+      <c r="O8" s="18">
         <v>12</v>
       </c>
-      <c r="O7" s="19">
+      <c r="P8" s="18">
         <v>13</v>
       </c>
-      <c r="P7" s="19">
+      <c r="Q8" s="18">
         <v>14</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="R8" s="18">
+        <v>15</v>
+      </c>
+      <c r="S8" s="18">
+        <v>16</v>
+      </c>
+      <c r="T8" s="18">
+        <v>17</v>
+      </c>
+      <c r="U8" s="18">
+        <v>18</v>
+      </c>
+      <c r="V8" s="18">
+        <v>19</v>
+      </c>
+      <c r="W8" s="18">
+        <v>20</v>
+      </c>
+      <c r="X8" s="18">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>29</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>32</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>33</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>34</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>35</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>36</v>
+      </c>
+      <c r="AN8" s="18">
+        <v>37</v>
+      </c>
+      <c r="AO8" s="18">
+        <v>38</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>39</v>
+      </c>
+      <c r="AQ8" s="18">
+        <v>40</v>
+      </c>
+      <c r="AR8" s="18">
+        <v>41</v>
+      </c>
+      <c r="AS8" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="R7" s="20">
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="S7" s="20">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
-      <c r="T7" s="20">
+      <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="U7" s="20">
+      <c r="H9" s="19">
         <v>5</v>
       </c>
-      <c r="V7" s="20">
+      <c r="I9" s="19">
         <v>6</v>
       </c>
-      <c r="W7" s="20">
+      <c r="J9" s="19">
         <v>7</v>
       </c>
-      <c r="X7" s="20">
+      <c r="K9" s="19">
         <v>8</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="L9" s="19">
         <v>9</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="M9" s="19">
         <v>10</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="N9" s="19">
         <v>11</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="O9" s="19">
         <v>12</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="P9" s="19">
         <v>13</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="Q9" s="19">
         <v>14</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="R9" s="29">
         <v>1</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="S9" s="29">
         <v>2</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="T9" s="29">
         <v>3</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="U9" s="29">
         <v>4</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="V9" s="29">
         <v>5</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="W9" s="29">
         <v>6</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="X9" s="29">
         <v>7</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="Y9" s="29">
         <v>8</v>
       </c>
-      <c r="AM7" s="19">
+      <c r="Z9" s="29">
         <v>9</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AA9" s="29">
         <v>10</v>
       </c>
-      <c r="AO7" s="19">
+      <c r="AB9" s="29">
         <v>11</v>
       </c>
-      <c r="AP7" s="19">
+      <c r="AC9" s="29">
         <v>12</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AD9" s="29">
         <v>13</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="AE9" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="AF9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="19">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="19">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>6</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="19">
+        <v>8</v>
+      </c>
+      <c r="AN9" s="19">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="19">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="AP9" s="19">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="AQ9" s="19">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="AR9" s="19">
+        <v>13</v>
+      </c>
+      <c r="AS9" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -868,12 +1110,13 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="12"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
-      <c r="AJ10" s="16"/>
+      <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
@@ -882,12 +1125,16 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C10+70</f>
+        <v>70</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -897,10 +1144,10 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -914,14 +1161,14 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
@@ -929,12 +1176,16 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="AS11" s="10"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:C19" si="1">C11+70</f>
+        <v>140</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -942,9 +1193,9 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -962,13 +1213,12 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AE12" s="12"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
@@ -976,26 +1226,30 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -1009,26 +1263,30 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1037,12 +1295,12 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -1070,32 +1328,36 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15"/>
+      <c r="AS14" s="10"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="23"/>
+      <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="16"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -1112,207 +1374,318 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
       <c r="AM15" s="10"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="10"/>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="10"/>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-    </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="10"/>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-    </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-    </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+    </row>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="E20" s="1" t="s">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="E21" s="1" t="s">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+      <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C22" s="8"/>
-      <c r="E22" s="1" t="s">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D24" s="8"/>
+      <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="E23" s="1" t="s">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D25" s="4"/>
+      <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-      <c r="E24" s="1" t="s">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="E25" s="1" t="s">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+      <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="E26" s="1" t="s">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D28" s="21"/>
+      <c r="F28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C27" s="28"/>
-      <c r="E27" s="1" t="s">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="D29" s="27"/>
+      <c r="F29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
